--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T04:15:54+00:00</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -256,21 +259,14 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ</t>
-  </si>
-  <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
-患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-CORE】
-DIagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ。【詳細参照】</t>
+  </si>
+  <si>
+    <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。</t>
+  </si>
+  <si>
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>Event</t>
@@ -289,675 +285,649 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
+  </si>
+  <si>
+    <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
+  </si>
+  <si>
+    <t>通常、診断サービスプロバイダの情報システム（フィラーID）によって割り当てられる。</t>
+  </si>
+  <si>
+    <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>元になった検査や診断の依頼。【詳細参照】</t>
+  </si>
+  <si>
+    <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
+  </si>
+  <si>
+    <t>通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また１つの検査依頼に対して複数のレポートが作成される場合もあることに注意。</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | preliminary | final +</t>
+  </si>
+  <si>
+    <t>診断レポートのステータス。</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>サービスカテゴリー。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
+  </si>
+  <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>この診断レポートを説明するコードまたは名前。</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
+    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
+</t>
+  </si>
+  <si>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダの相互関係など）。受診、入院、診察など。</t>
+  </si>
+  <si>
+    <t>通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
+  </si>
+  <si>
+    <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+  </si>
+  <si>
+    <t>診断手順が患者に対して実行された場合、これは実施された時間である。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
+  </si>
+  <si>
+    <t>Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date published
+Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
+  </si>
+  <si>
+    <t>リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
+  </si>
+  <si>
+    <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>participation[typeCode=VRF or AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートの作成発行に責任をもつ診断サービス。</t>
+  </si>
+  <si>
+    <t>必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
+  </si>
+  <si>
+    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
+    <t>結果の一次解釈者。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
+  </si>
+  <si>
+    <t>レポートに責任を持つ主体とは異なる場合がある。</t>
+  </si>
+  <si>
+    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>レポートのもとになった検体。【詳細参照】</t>
+  </si>
+  <si>
+    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
+  </si>
+  <si>
+    <t>検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
+  </si>
+  <si>
+    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result</t>
+  </si>
+  <si>
+    <t>Data
+Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの一部としてのObservationsリソース。</t>
+  </si>
+  <si>
+    <t>Observationはobservationを含むことができる。</t>
+  </si>
+  <si>
+    <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
+  </si>
+  <si>
+    <t>OBXs</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.imagingStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
+  </si>
+  <si>
+    <t>ImagingStudyと画像要素は多少重複する。通常、画像要素内の画像参照のリストは、画像検査リソースのひとつにも存在する。ただし、それぞれがさまざまなタイプの目的のためにさまざまなタイプのディスプレイに対応する。どちらも、どちらか、または両方を提供することはできない。</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media</t>
+  </si>
+  <si>
+    <t>DICOM
+SlidesScans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
+  </si>
+  <si>
+    <t>Many diagnostic services include images in the report as part of their service.</t>
+  </si>
+  <si>
+    <t>OBX?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report レポートを識別するビジネス識別子</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.
-実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).
-通常、診断サービスプロバイダーの情報システム（フィラーID）によって割り当てられる。</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.
-発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.
-依頼されたサービス（検査や診断など）に関する詳細情報</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
-通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また 1つの検査依頼に対して複数のレポートが作成される場合もあることに注意。</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report.
-診断レポートのステータス。</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Service category　サービスカテゴリー</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.
-レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
-さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できます。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義されます。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.
-この診断レポートを説明するコードまたは名前。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミのロジーの使用がこの一般的なパターンに適合するわけではありません。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
-</t>
-  </si>
-  <si>
-    <t>The subject of the report - usually, but not always, the patient 　レポートの対象、常にではありませんが、通常は患者</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.
-レポートの対象、常にではありませんが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要があります（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.
-このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダーの相互関係など）。受診、入院、診察など。</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).
-通常、イベントが発生したEncounterですが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective TimeOccurrence</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかですが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
-  </si>
-  <si>
-    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.
-診断手順が患者に対して実行された場合、これは実施された時間です。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができますが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
-  </si>
-  <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date published
-Date IssuedDate Verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
-  </si>
-  <si>
-    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.
-リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t>OBR-22</t>
-  </si>
-  <si>
-    <t>participation[typeCode=VRF or AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.
-レポートの作成発行に責任をもつ診断サービス。</t>
-  </si>
-  <si>
-    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.
-必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
-  </si>
-  <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.resultsInterpreter</t>
-  </si>
-  <si>
-    <t>Analyzed by
-Reported by</t>
-  </si>
-  <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
-  </si>
-  <si>
-    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.
-レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
-  </si>
-  <si>
-    <t>Might not be the same entity that takes responsibility for the clinical report.
-レポートに責任を持つ主体とは異なる場合がある。</t>
-  </si>
-  <si>
-    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.
-この診断レポートのもとになった検体に関する詳細情報。</t>
-  </si>
-  <si>
-    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.
-検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
-  </si>
-  <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result</t>
-  </si>
-  <si>
-    <t>Data
-Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Observations　検査結果</t>
-  </si>
-  <si>
-    <t>[Observations](observation.html)  that are part of this diagnostic report.
-診断レポートの一部。</t>
-  </si>
-  <si>
-    <t>Observations can contain observation
-Observationはobservationを含みうる。</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.
-個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
-  </si>
-  <si>
-    <t>OBXs</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.imagingStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
-  </si>
-  <si>
-    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.
-診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
-  </si>
-  <si>
-    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.
-ImagingStudyと画像要素は多少重複する。通常、画像要素内の画像参照のリストは、画像検査リソースのひとつにも存在する。ただし、それぞれがさまざまなタイプの目的のためにさまざまなタイプのディスプレイに対応する。どちらも、どちらか、または両方を提供することはできない。</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media</t>
-  </si>
-  <si>
-    <t>DICOM
-SlidesScans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
-  </si>
-  <si>
-    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).
-このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
-  </si>
-  <si>
-    <t>Many diagnostic services include images in the report as part of their service.</t>
-  </si>
-  <si>
-    <t>OBX?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -1037,11 +1007,10 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
-  </si>
-  <si>
-    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.
-診断レポートの簡潔で臨床的に文脈化された要約結論（解釈/印象）。</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの簡潔で臨床的に文脈化された要約結論（解釈/印象）。</t>
   </si>
   <si>
     <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
@@ -1056,15 +1025,13 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
-  </si>
-  <si>
-    <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.
-診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1083,15 +1050,13 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
-  </si>
-  <si>
-    <t>Rich text representation of the entire result as issued by the diagnostic service. Multiple formats are allowed but they SHALL be semantically equivalent.
-診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
-  </si>
-  <si>
-    <t>"application/pdf" is recommended as the most reliable and interoperable in this context.
-「application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
+  </si>
+  <si>
+    <t>「application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。</t>
   </si>
   <si>
     <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
@@ -1346,55 +1311,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1414,262 +1379,262 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.21484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1681,7 +1646,7 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1690,20 +1655,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>89</v>
@@ -1722,77 +1687,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1801,20 +1766,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>89</v>
@@ -1831,77 +1796,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1910,17 +1875,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>89</v>
@@ -1942,77 +1907,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2021,23 +1986,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>108</v>
@@ -2053,26 +2018,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>112</v>
@@ -2084,46 +2049,46 @@
         <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2136,19 +2101,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>118</v>
@@ -2164,77 +2129,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2247,19 +2212,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>126</v>
@@ -2275,77 +2240,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -2358,19 +2323,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>134</v>
@@ -2386,77 +2351,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2469,19 +2434,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>134</v>
@@ -2499,77 +2464,77 @@
         <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -2582,16 +2547,16 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>89</v>
@@ -2612,62 +2577,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -2695,19 +2660,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>158</v>
@@ -2725,62 +2690,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
@@ -2795,7 +2760,7 @@
         <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2804,7 +2769,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2814,7 +2779,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>89</v>
@@ -2836,26 +2801,26 @@
         <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>170</v>
@@ -2867,19 +2832,19 @@
         <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
@@ -2891,7 +2856,7 @@
         <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
@@ -2919,16 +2884,16 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>89</v>
@@ -2947,26 +2912,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>183</v>
@@ -2978,37 +2943,37 @@
         <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>186</v>
@@ -3036,10 +3001,10 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3058,26 +3023,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>112</v>
@@ -3089,19 +3054,19 @@
         <v>195</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>189</v>
@@ -3113,7 +3078,7 @@
         <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
@@ -3141,16 +3106,16 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>89</v>
@@ -3171,62 +3136,62 @@
         <v>206</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>100</v>
@@ -3254,16 +3219,16 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>89</v>
@@ -3284,62 +3249,62 @@
         <v>217</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>100</v>
@@ -3367,16 +3332,16 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>89</v>
@@ -3397,62 +3362,62 @@
         <v>228</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>100</v>
@@ -3480,16 +3445,16 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>89</v>
@@ -3510,68 +3475,68 @@
         <v>239</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>240</v>
@@ -3593,16 +3558,16 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>89</v>
@@ -3623,62 +3588,62 @@
         <v>249</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>243</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>100</v>
@@ -3706,16 +3671,16 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>89</v>
@@ -3736,62 +3701,62 @@
         <v>249</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
@@ -3815,23 +3780,23 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>261</v>
@@ -3849,68 +3814,68 @@
         <v>265</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>266</v>
@@ -3919,7 +3884,7 @@
         <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3932,19 +3897,19 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>269</v>
@@ -3962,68 +3927,68 @@
         <v>273</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>267</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>274</v>
@@ -4032,7 +3997,7 @@
         <v>275</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -4041,23 +4006,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>277</v>
@@ -4073,77 +4038,77 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>281</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -4156,16 +4121,16 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>89</v>
@@ -4184,68 +4149,68 @@
         <v>287</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>288</v>
@@ -4254,7 +4219,7 @@
         <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4263,112 +4228,112 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4376,19 +4341,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>134</v>
@@ -4397,103 +4362,103 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>89</v>
@@ -4505,10 +4470,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4517,199 +4482,199 @@
         <v>143</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4719,73 +4684,73 @@
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4794,357 +4759,357 @@
         <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>179</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>183</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="354">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,123 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -259,14 +142,22 @@
     <t/>
   </si>
   <si>
-    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ。【詳細参照】</t>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。</t>
   </si>
   <si>
-    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -291,13 +182,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +201,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +221,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +240,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +272,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +298,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -433,33 +324,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -476,10 +368,10 @@
 </t>
   </si>
   <si>
-    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
-  </si>
-  <si>
-    <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子</t>
   </si>
   <si>
     <t>通常、診断サービスプロバイダの情報システム（フィラーID）によって割り当てられる。</t>
@@ -511,16 +403,16 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼。【詳細参照】</t>
-  </si>
-  <si>
-    <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
+    <t>元になった検査や診断の依頼に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>元になった検査や診断の依頼に関する情報</t>
   </si>
   <si>
     <t>通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また１つの検査依頼に対して複数のレポートが作成される場合もあることに注意。</t>
   </si>
   <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+    <t>これにより、レポートの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -535,19 +427,16 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>診断レポートのステータス。</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+    <t>診断レポートのステータス</t>
+  </si>
+  <si>
+    <t>診断サービスは、暫定/不完全なレポートを日常的に発行し、以前にリリースされたレポートを撤回することもあります。 / Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The status of the diagnostic report.</t>
+    <t>診断レポートのステータス。 / The status of the diagnostic report.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
@@ -576,19 +465,19 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
+  </si>
+  <si>
+    <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Codes for diagnostic service sections.</t>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
@@ -601,6 +490,208 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.extension</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.system</t>
+  </si>
+  <si>
+    <t>カテゴリーコードシステムの識別URL</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.version</t>
+  </si>
+  <si>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.code</t>
+  </si>
+  <si>
+    <t>カテゴリーコード</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.display</t>
+  </si>
+  <si>
+    <t>カテゴリー表示名</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -610,19 +701,13 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>この診断レポートを説明するコードまたは名前。</t>
-  </si>
-  <si>
-    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを説明するコードまたは名前</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_DiagnosticReport_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -648,16 +733,16 @@
 </t>
   </si>
   <si>
-    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
-  </si>
-  <si>
-    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
+    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの対象患者に関する情報</t>
+  </si>
+  <si>
+    <t>レポートの対象、通常、Patientリソースへの参照。ただし、他のさまざまなソースから収集された検体を対象とすることもある。参照は内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>主題のコンテキストを知っておく必要があります。 / SHALL know the subject context.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -683,16 +768,16 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このDiagnosticReportが対象とするヘルスケアイベント（患者とヘルスケアプロバイダの相互関係など）。受診、入院、診察など。</t>
-  </si>
-  <si>
-    <t>通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報</t>
+  </si>
+  <si>
+    <t>受診、入院、診察など。通常、イベントが発生したEncounterであるが、一部のイベントは、Encounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
+  </si>
+  <si>
+    <t>リクエストをエンカウンターコンテキストにリンクします。 / Links the request to the Encounter context.</t>
   </si>
   <si>
     <t>Event.encounter</t>
@@ -718,16 +803,16 @@
 Period</t>
   </si>
   <si>
-    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>診断レポートの作成日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成日時</t>
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実施された時間である。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
   </si>
   <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
+    <t>このレポートを提出/提示するために、患者履歴のどこにあるかを知る必要があります。 / Need to know where in the patient history to file/present this report.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -753,16 +838,16 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証・確定された後となる。</t>
-  </si>
-  <si>
-    <t>リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時</t>
+  </si>
+  <si>
+    <t>通常、レポートがレビューおよび検証・確定された後となる。リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
+  </si>
+  <si>
+    <t>臨床医は、報告書が発表された日付を確認できる必要があります。 / Clinicians need to be able to check the date that the report was released.</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -785,16 +870,16 @@
 </t>
   </si>
   <si>
-    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートの作成発行に責任をもつ診断サービス。</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報</t>
   </si>
   <si>
     <t>必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
   </si>
   <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+    <t>結果についてクエリがある場合は、誰に連絡するかを知る必要があります。また、二次データ分析のためにレポートのソースを追跡する必要がある場合があります。 / Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -816,13 +901,13 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートの結論と解釈に責任を持つ医療者あるいは組織。</t>
-  </si>
-  <si>
-    <t>レポートに責任を持つ主体とは異なる場合がある。</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報</t>
+  </si>
+  <si>
+    <t>診断レポートに責任を持つもの(performer)とは異なる場合がある。</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -835,16 +920,16 @@
 </t>
   </si>
   <si>
-    <t>レポートのもとになった検体。【詳細参照】</t>
-  </si>
-  <si>
-    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
+    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報</t>
   </si>
   <si>
     <t>検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
   </si>
   <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+    <t>レポートの基礎となる収集された標本に関する情報を報告できる必要があります。 / Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -861,13 +946,13 @@
 </t>
   </si>
   <si>
-    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの一部としてのObservationsリソース。</t>
-  </si>
-  <si>
-    <t>Observationはobservationを含むことができる。</t>
+    <t>診断レポートの一部となるObservationsに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの一部となるObservationsに関する情報</t>
+  </si>
+  <si>
+    <t>Observationsは階層構造を持てる。</t>
   </si>
   <si>
     <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
@@ -886,13 +971,13 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断的精査中に実施されたなんらかの画像検査の詳細情報へのひとつ以上のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査であるが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
-  </si>
-  <si>
-    <t>ImagingStudyと画像要素は多少重複する。通常、画像要素内の画像参照のリストは、画像検査リソースのひとつにも存在する。ただし、それぞれがさまざまなタイプの目的のためにさまざまなタイプのディスプレイに対応する。どちらも、どちらか、または両方を提供することはできない。</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報</t>
+  </si>
+  <si>
+    <t>診断的精査中に実施された画像検査の詳細情報へのひとつ/複数のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査だが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
@@ -909,13 +994,16 @@
 </t>
   </si>
   <si>
-    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このレポートに関連する主要な画像のリスト。画像は通常、診断プロセス中に作成され、患者から直接か、調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
-  </si>
-  <si>
-    <t>Many diagnostic services include images in the report as part of their service.</t>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報</t>
+  </si>
+  <si>
+    <t>通常は画像。診断プロセス中に作成され、患者から直接取得されたもの、あるいは調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
+  </si>
+  <si>
+    <t>多くの診断業務では提供情報の一部としてレポートに画像を含む。</t>
   </si>
   <si>
     <t>OBX?</t>
@@ -924,29 +1012,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -956,10 +1022,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -969,16 +1036,16 @@
     <t>DiagnosticReport.media.comment</t>
   </si>
   <si>
-    <t>Comment about the image (e.g. explanation)</t>
-  </si>
-  <si>
-    <t>A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
-  </si>
-  <si>
-    <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
-  </si>
-  <si>
-    <t>The provider of the report should make a comment about each image included in the report.</t>
+    <t>画像についてのコメント（例：説明） / Comment about the image (e.g. explanation)</t>
+  </si>
+  <si>
+    <t>画像についてのコメント。通常、これは、画像が含まれている理由の説明を提供するため、または重要な機能に視聴者の注意を引くために使用されます。 / A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
+  </si>
+  <si>
+    <t>コメントは画像に表示される必要があります。レポートは、結論などの他のセクションに画像内容の追加の議論を含めることが一般的です。 / The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
+  </si>
+  <si>
+    <t>レポートのプロバイダーは、レポートに含まれる各画像についてコメントする必要があります。 / The provider of the report should make a comment about each image included in the report.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
@@ -991,10 +1058,10 @@
 </t>
   </si>
   <si>
-    <t>Reference to the image source</t>
-  </si>
-  <si>
-    <t>Reference to the image source.</t>
+    <t>画像ソースへの参照 / Reference to the image source</t>
+  </si>
+  <si>
+    <t>画像ソースへの参照。 / Reference to the image source.</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1007,13 +1074,10 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの簡潔で臨床的に文脈化された要約結論（解釈/印象）。</t>
-  </si>
-  <si>
-    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）</t>
+  </si>
+  <si>
+    <t>基本的な結果データの中で失われない結論を提供できる必要があります。 / Need to be able to provide a conclusion that is not lost among the basic result data.</t>
   </si>
   <si>
     <t>OBX</t>
@@ -1025,16 +1089,16 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの要約的な結論（解釈/印象）を表す1つ以上のコード。</t>
-  </si>
-  <si>
-    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>Diagnosis codes provided as adjuncts to the report.</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、独自の構造を提供する必要がある。</t>
+  </si>
+  <si>
+    <t>レポートの補助として提供される診断コード。 / Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1050,16 +1114,16 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断サービスによって発行された結果全体のリッチテキスト表現。複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。</t>
-  </si>
-  <si>
-    <t>「application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。</t>
-  </si>
-  <si>
-    <t>Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）</t>
+  </si>
+  <si>
+    <t>複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。「application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。</t>
+  </si>
+  <si>
+    <t>実験室に、臨床忠実度のために独自の完全にフォーマットされたレポートを提供する能力を提供します。 / Gives laboratory the ability to provide its own fully formatted report for clinical fidelity.</t>
   </si>
   <si>
     <t>text (type=ED)</t>
@@ -1184,10 +1248,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1369,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1378,3738 +1442,4970 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.21484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>156</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>156</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>232</v>
+        <v>156</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>242</v>
+        <v>180</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>253</v>
+        <v>187</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="B40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
+      <c r="B41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -368,9 +368,6 @@
 </t>
   </si>
   <si>
-    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子【詳細参照】</t>
-  </si>
-  <si>
     <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>元になった検査や診断の依頼に関する情報</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
@@ -701,9 +692,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートを説明するコードまたは名前</t>
   </si>
   <si>
@@ -733,9 +721,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの対象患者に関する情報</t>
   </si>
   <si>
@@ -768,9 +753,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートが関係するヘルスケアイベントに関する情報</t>
   </si>
   <si>
@@ -803,9 +785,6 @@
 Period</t>
   </si>
   <si>
-    <t>診断レポートの作成日時【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの作成日時</t>
   </si>
   <si>
@@ -838,9 +817,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンの診断レポートが医療者に提供/確定された日時</t>
   </si>
   <si>
@@ -870,9 +846,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報</t>
   </si>
   <si>
@@ -901,9 +874,6 @@
 Reported by</t>
   </si>
   <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報</t>
   </si>
   <si>
@@ -920,9 +890,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートのもとになった検体に関する情報</t>
   </si>
   <si>
@@ -946,9 +913,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの一部となるObservationsに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの一部となるObservationsに関する情報</t>
   </si>
   <si>
@@ -971,9 +935,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートに関連づけれられたDICOM検査画像に関する情報</t>
   </si>
   <si>
@@ -992,9 +953,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけられたメディアに関する情報</t>
@@ -1089,9 +1047,6 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの要約結論（解釈、インプレッション）を表すコード</t>
   </si>
   <si>
@@ -1112,9 +1067,6 @@
   <si>
     <t xml:space="preserve">Attachment
 </t>
-  </si>
-  <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
   </si>
   <si>
     <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）</t>
@@ -2542,13 +2494,13 @@
         <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2612,28 +2564,28 @@
         <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2652,19 +2604,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2713,7 +2665,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2728,13 +2680,13 @@
         <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2742,10 +2694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2771,14 +2723,14 @@
         <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2803,14 +2755,14 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2827,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>51</v>
@@ -2842,28 +2794,28 @@
         <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2882,16 +2834,16 @@
         <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2917,13 +2869,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -2941,7 +2893,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2959,21 +2911,21 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2996,13 +2948,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3053,7 +3005,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3074,7 +3026,7 @@
         <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3082,10 +3034,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3114,7 +3066,7 @@
         <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>100</v>
@@ -3155,19 +3107,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3188,7 +3140,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3196,10 +3148,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3222,19 +3174,19 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3283,7 +3235,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3301,10 +3253,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3312,10 +3264,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3338,13 +3290,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3395,7 +3347,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3416,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3424,10 +3376,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3456,7 +3408,7 @@
         <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>100</v>
@@ -3497,19 +3449,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3530,7 +3482,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3538,10 +3490,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3567,16 +3519,16 @@
         <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3625,7 +3577,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3643,10 +3595,10 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3654,10 +3606,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3680,16 +3632,16 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3739,7 +3691,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3757,10 +3709,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3768,10 +3720,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3797,14 +3749,14 @@
         <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3853,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3871,10 +3823,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3882,10 +3834,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3908,17 +3860,17 @@
         <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3967,7 +3919,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -3985,10 +3937,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3996,10 +3948,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4022,19 +3974,19 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4083,7 +4035,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4101,10 +4053,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4112,10 +4064,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4138,19 +4090,19 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4199,7 +4151,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4217,10 +4169,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4228,14 +4180,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4254,13 +4206,13 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4291,7 +4243,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4309,7 +4261,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>51</v>
@@ -4324,28 +4276,28 @@
         <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4364,19 +4316,19 @@
         <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4425,7 +4377,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4440,28 +4392,28 @@
         <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4480,19 +4432,19 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4541,7 +4493,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4556,28 +4508,28 @@
         <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4596,19 +4548,19 @@
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4657,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4672,28 +4624,28 @@
         <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4712,19 +4664,19 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4773,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4791,25 +4743,25 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4828,19 +4780,19 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4889,7 +4841,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4904,28 +4856,28 @@
         <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4944,19 +4896,19 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5005,7 +4957,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5020,24 +4972,24 @@
         <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5060,19 +5012,19 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5121,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5139,10 +5091,10 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5150,14 +5102,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5176,19 +5128,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5237,7 +5189,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5255,10 +5207,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5266,10 +5218,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5292,16 +5244,16 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5351,7 +5303,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5372,7 +5324,7 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5380,14 +5332,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5406,19 +5358,19 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5467,7 +5419,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5485,10 +5437,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5496,10 +5448,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5522,13 +5474,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5579,7 +5531,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5600,7 +5552,7 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5608,10 +5560,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5640,7 +5592,7 @@
         <v>98</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>100</v>
@@ -5693,7 +5645,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5714,7 +5666,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5722,14 +5674,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5751,10 +5703,10 @@
         <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>100</v>
@@ -5809,7 +5761,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5838,10 +5790,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5864,19 +5816,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5925,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5946,7 +5898,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5954,10 +5906,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5980,13 +5932,13 @@
         <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6037,7 +5989,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>51</v>
@@ -6058,7 +6010,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6066,14 +6018,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6092,17 +6044,17 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6151,7 +6103,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6169,10 +6121,10 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6180,10 +6132,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6206,16 +6158,16 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6241,13 +6193,13 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -6265,7 +6217,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6283,10 +6235,10 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6294,10 +6246,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6320,19 +6272,19 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6381,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6399,10 +6351,10 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1385,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1396,11 +1516,13 @@
   <cols>
     <col min="1" max="1" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1408,4956 +1530,5077 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>153</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
